--- a/intern_list.xlsx
+++ b/intern_list.xlsx
@@ -1,143 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\idms-python-projects\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CB8669-6BD8-41F6-A6E7-F02B6B71F0D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{1A9AEBC7-2847-43BF-BA3E-9358D8EFF191}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="181029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Join Date</t>
-  </si>
-  <si>
-    <t>Internship Duration</t>
-  </si>
-  <si>
-    <t>Aanya Mehta</t>
-  </si>
-  <si>
-    <t>3 months</t>
-  </si>
-  <si>
-    <t>Rohan Kapoor</t>
-  </si>
-  <si>
-    <t>6 months</t>
-  </si>
-  <si>
-    <t>Neel Shah</t>
-  </si>
-  <si>
-    <t>2 months</t>
-  </si>
-  <si>
-    <t>Sara Fernandes</t>
-  </si>
-  <si>
-    <t>4 months</t>
-  </si>
-  <si>
-    <t>Ishan Verma</t>
-  </si>
-  <si>
-    <t>Kavya Nair</t>
-  </si>
-  <si>
-    <t>5 months</t>
-  </si>
-  <si>
-    <t>Arjun Desai</t>
-  </si>
-  <si>
-    <t>Tanya Bhatia</t>
-  </si>
-  <si>
-    <t>Vihaan Sinha</t>
-  </si>
-  <si>
-    <t>Meera Joshi</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>UI Redesign</t>
-  </si>
-  <si>
-    <t>Data Dashboard</t>
-  </si>
-  <si>
-    <t>API Integration</t>
-  </si>
-  <si>
-    <t>Market Research</t>
-  </si>
-  <si>
-    <t>Automation Scripts</t>
-  </si>
-  <si>
-    <t>Mobile App Testing</t>
-  </si>
-  <si>
-    <t>Backend Optimization</t>
-  </si>
-  <si>
-    <t>Social Media Analytics</t>
-  </si>
-  <si>
-    <t>Content Management System</t>
-  </si>
-  <si>
-    <t>Competitor Analysis</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -156,33 +54,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -482,178 +439,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0112598D-EC90-4934-B3B9-40BECD9CABD7}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.140625" customWidth="1"/>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.85546875" customWidth="1"/>
+    <col width="22.140625" customWidth="1" min="1" max="1"/>
+    <col width="39.7109375" customWidth="1" min="2" max="2"/>
+    <col width="48.42578125" customWidth="1" min="3" max="3"/>
+    <col width="39.85546875" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Join Date</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Internship Duration</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Projects</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Aanya Mehta</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>45731</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>3 months</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>UI Redesign</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="45" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Rohan Kapoor</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>45667</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
-        <v>45749</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>6 months</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>Data Dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="45" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Sara Fernandes</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>45713</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>4 months</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>Market Research</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="30" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Ishan Verma</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>45778</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>3 months</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>Automation Scripts</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="45" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Kavya Nair</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>45736</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5 months</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>Mobile App Testing</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="45" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Arjun Desai</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>45687</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>6 months</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>Backend Optimization</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Tanya Bhatia</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>45700</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3 months</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>Social Media Analytics</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="45" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Vihaan Sinha</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>45762</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2 months</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Content Management System</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Meera Joshi</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
         <v>45721</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-    </row>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4 months</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Competitor Analysis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="45" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
